--- a/Sample data/Metadata.xlsx
+++ b/Sample data/Metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10303"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livenapierac-my.sharepoint.com/personal/b_davison_napier_ac_uk/Documents/Modules/SET09102/2024-25/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liam_\Documents\GitHub\SECWRework\Sample data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{8F183D94-9855-1144-8ABD-E006D78D5089}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B653FA92-BECD-F04B-AAA6-F8D4C0222DB6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231C3F28-5121-42B2-B017-917F01934386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="5380" windowWidth="27240" windowHeight="16440" xr2:uid="{4ED62BD8-9A4B-3549-B4A0-F1C3BE0A5B45}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4ED62BD8-9A4B-3549-B4A0-F1C3BE0A5B45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="63">
   <si>
     <t>Category</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Unit description</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
     <t>Particulate matter &lt;= 2.5 microns in diameter</t>
   </si>
   <si>
@@ -86,30 +83,15 @@
     <t>Particulate matter &lt;= 10 microns in diameter</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>https://www.gov.uk/government/statistics/air-quality-statistics/concentrations-of-particulate-matter-pm10-and-pm25</t>
-  </si>
-  <si>
     <t>Sulphur dioxide</t>
   </si>
   <si>
     <t>SO2</t>
   </si>
   <si>
-    <t>https://uk-air.defra.gov.uk/air-pollution/daqi?view=more-info&amp;pollutant=no2#pollutant</t>
-  </si>
-  <si>
-    <t>https://uk-air.defra.gov.uk/air-pollution/daqi?view=more-info&amp;pollutant=so2#pollutant</t>
-  </si>
-  <si>
     <t>Airly</t>
   </si>
   <si>
-    <t>https://airly.org/en/features/air-quality-sensors/</t>
-  </si>
-  <si>
     <t>Water quality</t>
   </si>
   <si>
@@ -137,21 +119,12 @@
     <t>ClearWater</t>
   </si>
   <si>
-    <t>https://clearwatersensors.com/nitrate-sensor.html</t>
-  </si>
-  <si>
     <t>-PO4</t>
   </si>
   <si>
-    <t>https://clearwatersensors.com/phosphate-sensor.html</t>
-  </si>
-  <si>
     <t>ALERT</t>
   </si>
   <si>
-    <t>https://www.digital-water.city/solution/sensors-for-real-time-in-situ-e-coli-and-enterococci-measurements/</t>
-  </si>
-  <si>
     <t>EC</t>
   </si>
   <si>
@@ -161,21 +134,12 @@
     <t xml:space="preserve">Colony forming units (cfu) per 100ml </t>
   </si>
   <si>
-    <t>https://environment.data.gov.uk/bwq/profiles/help-understanding-data.html</t>
-  </si>
-  <si>
     <t>mg/l</t>
   </si>
   <si>
     <t>milligrammes per litre</t>
   </si>
   <si>
-    <t>https://cdn.who.int/media/docs/default-source/wash-documents/water-safety-and-quality/chemical-fact-sheets-2022/nitrate-and-nitrite-fact-sheet-2022.pdf?sfvrsn=a65406e9_2&amp;download=true</t>
-  </si>
-  <si>
-    <t>https://assets.publishing.service.gov.uk/media/5a7b1f23ed915d3ed90624fc/defra-stats-observatory-indicators-da3-120224.pdf</t>
-  </si>
-  <si>
     <t>Weather</t>
   </si>
   <si>
@@ -239,19 +203,28 @@
     <t>Netvox R712</t>
   </si>
   <si>
-    <t>https://www.alliot.co.uk/product/netvox-outdoor-temperature-and-humidity-sensor/</t>
-  </si>
-  <si>
     <t>Vaisala WM80</t>
   </si>
   <si>
-    <t>https://www.vaisala.com/en/products/ultrasonic-wind-sensor-wm80</t>
-  </si>
-  <si>
     <t>cfu/100ml</t>
   </si>
   <si>
     <t>microgrammes per cubic metre</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Edinburgh, Nicolson Street</t>
+  </si>
+  <si>
+    <t>Glencorse B</t>
+  </si>
+  <si>
+    <t>Glencaple</t>
   </si>
 </sst>
 </file>
@@ -637,22 +610,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A5C241-15AB-EB40-96B8-D06162AB8A97}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.625" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -660,7 +633,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -669,408 +642,375 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
         <v>5</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G2">
         <v>200</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="H2" s="1"/>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>266</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="H3" s="1"/>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>35</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="1"/>
+      <c r="I4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>50</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="1"/>
+      <c r="I5" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
-        <v>22</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="H6" s="1"/>
       <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>50</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="H7" s="1"/>
       <c r="I7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>43</v>
-      </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G8">
         <v>0.1</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="G9">
         <v>500</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="H9" s="1"/>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
       </c>
       <c r="G10">
         <v>185</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="1"/>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="I10" t="s">
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>36</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
         <v>53</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{51DB96D1-FD0E-7D4D-BC09-EB81C0BCCCF3}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{187EEBE8-E95D-054A-9C89-76DF059F512F}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{31D2ADA8-D863-434E-96BE-3643F645845D}"/>
-    <hyperlink ref="H2" r:id="rId4" location="pollutant" xr:uid="{6C3ED576-6301-0649-AF19-EC0DD4846CF3}"/>
-    <hyperlink ref="H3" r:id="rId5" location="pollutant" xr:uid="{5DE3DFAC-C773-464F-89E5-D2C70C33D016}"/>
-    <hyperlink ref="J3" r:id="rId6" xr:uid="{ABDF9012-BB83-B144-B967-5C9FC5E166F5}"/>
-    <hyperlink ref="J4" r:id="rId7" xr:uid="{3F5CAC00-37D3-F741-ADB0-798B17AE3947}"/>
-    <hyperlink ref="J5" r:id="rId8" xr:uid="{DF3C91D2-945C-6047-9448-B8A6F416951A}"/>
-    <hyperlink ref="J6" r:id="rId9" xr:uid="{E6DB8BB0-22BF-1B4E-90E1-2653AA648CF1}"/>
-    <hyperlink ref="J7" r:id="rId10" xr:uid="{E8FC3F0D-4E38-1B41-A1F7-B5DACF68F1BF}"/>
-    <hyperlink ref="J8" r:id="rId11" xr:uid="{609C987A-E2B4-EA4E-908C-9BF0CB3C5599}"/>
-    <hyperlink ref="J9" r:id="rId12" xr:uid="{268EEC66-45AE-104E-AD7B-C27F30B395AE}"/>
-    <hyperlink ref="J10" r:id="rId13" xr:uid="{CA82DC72-759C-1F4A-B7E6-5C4823FF1423}"/>
-    <hyperlink ref="H9" r:id="rId14" xr:uid="{D0971DB3-130C-4E40-8408-1A8D62811689}"/>
-    <hyperlink ref="H10" r:id="rId15" xr:uid="{7FB764A3-AC43-1949-856E-094000C89F94}"/>
-    <hyperlink ref="H6" r:id="rId16" xr:uid="{A84CAACE-CE75-234A-A449-2C01E21EE005}"/>
-    <hyperlink ref="H7" r:id="rId17" xr:uid="{21823EA5-A2A2-184E-AF5E-EC3DF1E77BAA}"/>
-    <hyperlink ref="H8" r:id="rId18" xr:uid="{A7E5ED82-29A8-2E46-9A6E-F19DD5963D03}"/>
-    <hyperlink ref="J11" r:id="rId19" xr:uid="{125BAFD8-1EA1-4F4C-925B-C8F055503361}"/>
-    <hyperlink ref="J12" r:id="rId20" xr:uid="{2FDEEE84-36BF-554E-94C1-6A39FA644C28}"/>
-    <hyperlink ref="J13" r:id="rId21" xr:uid="{D630CAB4-4830-AE46-B639-7903CDE27899}"/>
-    <hyperlink ref="J14" r:id="rId22" xr:uid="{26A8B98C-CE8E-A542-A086-E8863B68BB29}"/>
+    <hyperlink ref="J2" r:id="rId1" display="https://airly.org/en/features/air-quality-sensors/" xr:uid="{51DB96D1-FD0E-7D4D-BC09-EB81C0BCCCF3}"/>
+    <hyperlink ref="J3:J5" r:id="rId2" display="https://airly.org/en/features/air-quality-sensors/" xr:uid="{6CE14CAC-7AD3-476C-9BB5-0C8353E3C316}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>